--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.812100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.812100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73411CEE-AC98-4C5D-9D90-A36813B00039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0F570A-5018-48ED-8DBF-3857C146CBE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T062438.384" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T062619.707" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="98">
   <si>
     <t>Do Ty</t>
   </si>
@@ -272,6 +272,36 @@
   </si>
   <si>
     <t>DINAS CASH SUPIR 09-02 SD 15-2</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>MEETING KE RUMOD W/ P'HENRY</t>
+  </si>
+  <si>
+    <t>GOLDEN RAMA</t>
+  </si>
+  <si>
+    <t>#02240100880</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>FARE</t>
+  </si>
+  <si>
+    <t>#02240100885</t>
+  </si>
+  <si>
+    <t>DINAS KELUAR KANTOR</t>
+  </si>
+  <si>
+    <t>DINAS CASH SUPIR 16-02 SD 22-2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1126,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2327,68 +2357,988 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>24001038</v>
+      </c>
+      <c r="D10">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45341</v>
+      </c>
       <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
         <v>84</v>
       </c>
-      <c r="G10" s="2">
-        <v>2288.77</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2288.77</v>
+      <c r="H10">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
       </c>
       <c r="L10" s="2">
-        <v>36169600</v>
+        <v>1327500</v>
       </c>
       <c r="N10" s="2">
-        <v>36169600</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
+        <v>1327500</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2104023</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10">
+        <v>812100</v>
+      </c>
+      <c r="AZ10">
+        <v>1201.8121000000001</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>24001616</v>
+      </c>
+      <c r="D11">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45341</v>
+      </c>
       <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2288.77</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2288.77</v>
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>0.32</v>
+      </c>
+      <c r="H11">
+        <v>0.32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="2">
-        <v>36169600</v>
+        <v>5000</v>
       </c>
       <c r="N11" s="2">
-        <v>36169600</v>
+        <v>5000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11">
+        <v>2103732</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
       </c>
       <c r="AG11">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>55342008</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX11">
+        <v>24001214</v>
+      </c>
+      <c r="AY11">
+        <v>812100</v>
+      </c>
+      <c r="AZ11">
+        <v>1201.8121000000001</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>24001617</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45341</v>
+      </c>
       <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2288.77</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2288.77</v>
+        <v>87</v>
+      </c>
+      <c r="G12">
+        <v>61.03</v>
+      </c>
+      <c r="H12">
+        <v>61.03</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
       </c>
       <c r="L12" s="2">
-        <v>36169600</v>
+        <v>964450</v>
       </c>
       <c r="N12" s="2">
-        <v>36169600</v>
+        <v>964450</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12">
+        <v>2103741</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
       </c>
       <c r="AG12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>55342008</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12">
+        <v>1201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX12">
+        <v>24001214</v>
+      </c>
+      <c r="AY12">
+        <v>812100</v>
+      </c>
+      <c r="AZ12">
+        <v>1201.8121000000001</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>24001618</v>
+      </c>
+      <c r="D13">
+        <v>1201</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45341</v>
+      </c>
       <c r="F13" t="s">
         <v>87</v>
+      </c>
+      <c r="G13">
+        <v>5.75</v>
+      </c>
+      <c r="H13">
+        <v>5.75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>90868</v>
+      </c>
+      <c r="N13" s="2">
+        <v>90868</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13">
+        <v>2103748</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>55342008</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13">
+        <v>1201</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX13">
+        <v>24001214</v>
+      </c>
+      <c r="AY13">
+        <v>812100</v>
+      </c>
+      <c r="AZ13">
+        <v>1201.8121000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>24001619</v>
+      </c>
+      <c r="D14">
+        <v>1201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <v>103.72</v>
+      </c>
+      <c r="H14">
+        <v>103.72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1639137</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1639137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14">
+        <v>2103750</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>55342008</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14">
+        <v>24001214</v>
+      </c>
+      <c r="AY14">
+        <v>812100</v>
+      </c>
+      <c r="AZ14">
+        <v>1201.8121000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>24001040</v>
+      </c>
+      <c r="D15">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="H15">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1059400</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1059400</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2104615</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP15">
+        <v>1201</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15">
+        <v>812100</v>
+      </c>
+      <c r="AZ15">
+        <v>1201.8121000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>24001720</v>
+      </c>
+      <c r="D16">
+        <v>1201</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>170.85</v>
+      </c>
+      <c r="H16">
+        <v>170.85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X16">
+        <v>2105136</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>57339689</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP16">
+        <v>1201</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX16">
+        <v>24001249</v>
+      </c>
+      <c r="AY16">
+        <v>812100</v>
+      </c>
+      <c r="AZ16">
+        <v>1201.8121000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="N17" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2781.48</v>
+      </c>
+      <c r="L19" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43955955</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.812100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.812100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0F570A-5018-48ED-8DBF-3857C146CBE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{258C19F2-6744-4CCD-AF3A-D6B44F38A6CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T062619.707" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T062718.075" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="99">
   <si>
     <t>Do Ty</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>DINAS CASH SUPIR 16-02 SD 22-2</t>
+  </si>
+  <si>
+    <t>CLOSE HRIS 23/02/24</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1156,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ20"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3276,69 +3279,319 @@
         <v>1201.8121000000001</v>
       </c>
     </row>
-    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>24001043</v>
+      </c>
+      <c r="D17">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45345</v>
+      </c>
       <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>121.5</v>
+      </c>
+      <c r="H17">
+        <v>121.5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1920000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1920000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2105659</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP17">
+        <v>1201</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR17" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="2">
-        <v>2781.48</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2781.48</v>
-      </c>
-      <c r="L17" s="2">
-        <v>43955955</v>
-      </c>
-      <c r="N17" s="2">
-        <v>43955955</v>
-      </c>
-      <c r="AG17">
-        <v>10</v>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17">
+        <v>812100</v>
+      </c>
+      <c r="AZ17">
+        <v>1201.8121000000001</v>
       </c>
     </row>
-    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>24001055</v>
+      </c>
+      <c r="D18">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45351</v>
+      </c>
       <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>35.25</v>
+      </c>
+      <c r="H18">
+        <v>35.25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>557000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>557000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2106437</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18">
+        <v>1201</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18">
+        <v>812100</v>
+      </c>
+      <c r="AZ18">
+        <v>1201.8121000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="2">
-        <v>2781.48</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2781.48</v>
-      </c>
-      <c r="L18" s="2">
-        <v>43955955</v>
-      </c>
-      <c r="N18" s="2">
-        <v>43955955</v>
-      </c>
-      <c r="AG18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
       <c r="G19" s="2">
-        <v>2781.48</v>
+        <v>2938.23</v>
       </c>
       <c r="H19" s="2">
-        <v>2781.48</v>
+        <v>2938.23</v>
       </c>
       <c r="L19" s="2">
-        <v>43955955</v>
+        <v>46432955</v>
       </c>
       <c r="N19" s="2">
-        <v>43955955</v>
+        <v>46432955</v>
       </c>
       <c r="AG19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2938.23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2938.23</v>
+      </c>
+      <c r="L20" s="2">
+        <v>46432955</v>
+      </c>
+      <c r="N20" s="2">
+        <v>46432955</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>97</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2938.23</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2938.23</v>
+      </c>
+      <c r="L21" s="2">
+        <v>46432955</v>
+      </c>
+      <c r="N21" s="2">
+        <v>46432955</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
